--- a/teaching/traditional_assets/database/data/vietnam/vietnam_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/vietnam/vietnam_brokerage_investment_banking.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.122</v>
+        <v>0.162</v>
       </c>
       <c r="E2">
-        <v>0.0473</v>
+        <v>0.121</v>
       </c>
       <c r="G2">
-        <v>0.003445472494289807</v>
+        <v>0.004192651425501484</v>
       </c>
       <c r="H2">
-        <v>0.003445472494289807</v>
+        <v>0.004192651425501484</v>
       </c>
       <c r="I2">
-        <v>0.002330978647384221</v>
+        <v>0.003962977935767092</v>
       </c>
       <c r="J2">
-        <v>0.001958519126229618</v>
+        <v>0.003277126004860642</v>
       </c>
       <c r="K2">
-        <v>157.338</v>
+        <v>180.11</v>
       </c>
       <c r="L2">
-        <v>0.3045526692733537</v>
+        <v>0.3268997611459187</v>
       </c>
       <c r="M2">
-        <v>101.455</v>
+        <v>101.476</v>
       </c>
       <c r="N2">
-        <v>0.06583199231727575</v>
+        <v>0.0357246963562753</v>
       </c>
       <c r="O2">
-        <v>0.6448219756193673</v>
+        <v>0.5634112486813614</v>
       </c>
       <c r="P2">
-        <v>76.59999999999999</v>
+        <v>101.037</v>
       </c>
       <c r="Q2">
-        <v>0.04970411129568107</v>
+        <v>0.03557014610103855</v>
       </c>
       <c r="R2">
-        <v>0.4868499663145585</v>
+        <v>0.560973849314308</v>
       </c>
       <c r="S2">
-        <v>24.855</v>
+        <v>0.4390000000000008</v>
       </c>
       <c r="T2">
-        <v>0.2449854615346705</v>
+        <v>0.004326146083803074</v>
       </c>
       <c r="U2">
-        <v>112.373</v>
+        <v>108.9</v>
       </c>
       <c r="V2">
-        <v>0.07291645037375416</v>
+        <v>0.03833832071818342</v>
       </c>
       <c r="W2">
-        <v>0.08974358974358974</v>
+        <v>0.1138387484957882</v>
       </c>
       <c r="X2">
-        <v>0.07836555907934407</v>
+        <v>0.05406961463839381</v>
       </c>
       <c r="Y2">
-        <v>0.01137803066424567</v>
+        <v>0.05976913385739439</v>
       </c>
       <c r="Z2">
-        <v>0.2117706603518564</v>
+        <v>0.1862627985189843</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06572553630156151</v>
+        <v>0.05038288671684171</v>
       </c>
       <c r="AC2">
-        <v>-0.06754649804456644</v>
+        <v>-0.04840776026150582</v>
       </c>
       <c r="AD2">
-        <v>1484.2</v>
+        <v>1866.8</v>
       </c>
       <c r="AE2">
-        <v>12.69384905594182</v>
+        <v>22.5877091229901</v>
       </c>
       <c r="AF2">
-        <v>1496.893849055942</v>
+        <v>1889.38770912299</v>
       </c>
       <c r="AG2">
-        <v>1384.520849055942</v>
+        <v>1780.48770912299</v>
       </c>
       <c r="AH2">
-        <v>0.4927212064951907</v>
+        <v>0.3994572018017988</v>
       </c>
       <c r="AI2">
-        <v>0.4664101445499623</v>
+        <v>0.5200358088789931</v>
       </c>
       <c r="AJ2">
-        <v>0.4732367780217127</v>
+        <v>0.3853045758178192</v>
       </c>
       <c r="AK2">
-        <v>0.4470492504039753</v>
+        <v>0.5052049821341231</v>
       </c>
       <c r="AL2">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="AM2">
-        <v>-6.618000000000001</v>
+        <v>-10.456</v>
       </c>
       <c r="AN2">
-        <v>204.9150904321414</v>
+        <v>193.6514522821577</v>
       </c>
       <c r="AO2">
-        <v>-0.6548223350253808</v>
+        <v>0.2015873015873016</v>
       </c>
       <c r="AP2">
-        <v>191.152954446492</v>
+        <v>184.6978951372396</v>
       </c>
       <c r="AQ2">
-        <v>0.1949229374433363</v>
+        <v>-0.03643840856924254</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Viet Capital Securities Joint Stock Company (HOSE:VCI)</t>
+          <t>Agribank Securities Corporation (HOSE:AGR)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,6 +724,9 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -731,97 +734,94 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007883773717782722</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.006431625732075632</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>26.8</v>
+        <v>4.41</v>
       </c>
       <c r="L3">
-        <v>0.4604810996563574</v>
+        <v>0.4560496380558428</v>
       </c>
       <c r="M3">
-        <v>32.3</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.1549160671462829</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.205223880597015</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>14.9</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.07146282973621103</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.5559701492537313</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>17.4</v>
-      </c>
-      <c r="T3">
-        <v>0.5386996904024768</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>35.4</v>
+        <v>6.09</v>
       </c>
       <c r="V3">
-        <v>0.1697841726618705</v>
+        <v>0.07797695262483995</v>
+      </c>
+      <c r="W3">
+        <v>0.05133876600698487</v>
       </c>
       <c r="X3">
-        <v>0.070063014511636</v>
+        <v>0.04352640958356495</v>
+      </c>
+      <c r="Y3">
+        <v>0.007812356423419917</v>
       </c>
       <c r="Z3">
-        <v>62.19132425321613</v>
+        <v>0.1261249510890831</v>
       </c>
       <c r="AA3">
-        <v>0.3999913213788442</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06460876536879576</v>
+        <v>0.04352640958356495</v>
       </c>
       <c r="AC3">
-        <v>0.3353825560100484</v>
+        <v>-0.04352640958356495</v>
       </c>
       <c r="AD3">
-        <v>85.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.9358218481252275</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>86.33582184812524</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>50.93582184812524</v>
+        <v>-6.09</v>
       </c>
       <c r="AH3">
-        <v>0.2928267715467703</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.3459856833728335</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.1963330332923079</v>
+        <v>-0.08457158727954452</v>
       </c>
       <c r="AK3">
-        <v>0.2378668893813162</v>
+        <v>-0.07434989622756684</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.416</v>
-      </c>
-      <c r="AN3">
-        <v>132.1981424148607</v>
-      </c>
-      <c r="AP3">
-        <v>78.84802143672637</v>
+        <v>-0.056</v>
       </c>
       <c r="AQ3">
         <v>-0</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Asia Pacific Securities Joint Stock Company (HNX:APS)</t>
+          <t>Wall Street Securities Joint Stock Company (HNX:WSS)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>-0.915</v>
+        <v>2.9</v>
       </c>
       <c r="L4">
-        <v>-0.2493188010899183</v>
+        <v>5.141843971631206</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -868,7 +868,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -877,37 +877,37 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.164</v>
+        <v>0.332</v>
       </c>
       <c r="V4">
-        <v>0.05430463576158941</v>
+        <v>0.04261874197689346</v>
       </c>
       <c r="W4">
-        <v>-0.05754716981132076</v>
+        <v>0.1550802139037433</v>
       </c>
       <c r="X4">
-        <v>0.05740654184090485</v>
+        <v>0.04352640958356495</v>
       </c>
       <c r="Y4">
-        <v>-0.1149537116522256</v>
+        <v>0.1115538043201784</v>
       </c>
       <c r="Z4">
-        <v>0.2365300335137922</v>
+        <v>0.04295506473724296</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.05740654184090485</v>
+        <v>0.04352640958356495</v>
       </c>
       <c r="AC4">
-        <v>-0.05740654184090485</v>
+        <v>-0.04352640958356495</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-0.164</v>
+        <v>-0.332</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -928,19 +928,16 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.05742296918767507</v>
+        <v>-0.0445159560203808</v>
       </c>
       <c r="AK4">
-        <v>-0.01112920738327904</v>
+        <v>-0.0156103065638518</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.041</v>
-      </c>
-      <c r="AQ4">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -951,7 +948,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Agribank Securities Corporation (HOSE:AGR)</t>
+          <t>Asia Pacific Securities Joint Stock Company (HNX:APS)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -959,12 +956,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D5">
-        <v>-0.106</v>
-      </c>
-      <c r="E5">
-        <v>0.4320000000000001</v>
-      </c>
       <c r="G5">
         <v>0</v>
       </c>
@@ -978,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.14</v>
+        <v>0.7</v>
       </c>
       <c r="L5">
-        <v>0.3806060606060606</v>
+        <v>0.1236749116607774</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1005,31 +996,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>9.23</v>
+        <v>1.51</v>
       </c>
       <c r="V5">
-        <v>0.2831288343558282</v>
+        <v>0.1958495460440986</v>
       </c>
       <c r="W5">
-        <v>0.03969658659924147</v>
+        <v>0.04545454545454545</v>
       </c>
       <c r="X5">
-        <v>0.05740654184090485</v>
+        <v>0.04352640958356495</v>
       </c>
       <c r="Y5">
-        <v>-0.01770995524166338</v>
+        <v>0.0019281358709805</v>
       </c>
       <c r="Z5">
-        <v>0.1136833402232327</v>
+        <v>0.3729818780889621</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05740654184090485</v>
+        <v>0.04352640958356495</v>
       </c>
       <c r="AC5">
-        <v>-0.05740654184090485</v>
+        <v>-0.04352640958356495</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1041,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-9.23</v>
+        <v>-1.51</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1050,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.3949507916131793</v>
+        <v>-0.2435483870967742</v>
       </c>
       <c r="AK5">
-        <v>-0.1203860701708621</v>
+        <v>-0.1064129668780832</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>-0.051</v>
+        <v>-0.02</v>
       </c>
       <c r="AQ5">
         <v>-0</v>
@@ -1073,7 +1064,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ho Chi Minh City Securities Corporation (HOSE:HCM)</t>
+          <t>BIDV Securities Joint Stock Company (HOSE:BSI)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1082,10 +1073,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.118</v>
+        <v>0.122</v>
       </c>
       <c r="E6">
-        <v>-0.0221</v>
+        <v>-0.0212</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1094,103 +1085,103 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.007389314294565569</v>
+        <v>0.01473137894197921</v>
       </c>
       <c r="J6">
-        <v>0.005955566744873742</v>
+        <v>0.01200468408498268</v>
       </c>
       <c r="K6">
-        <v>16.2</v>
+        <v>4.31</v>
       </c>
       <c r="L6">
-        <v>0.2571428571428571</v>
+        <v>0.1298192771084337</v>
       </c>
       <c r="M6">
-        <v>13.983</v>
+        <v>0.2</v>
       </c>
       <c r="N6">
-        <v>0.04985026737967915</v>
+        <v>0.003072196620583718</v>
       </c>
       <c r="O6">
-        <v>0.8631481481481482</v>
+        <v>0.04640371229698376</v>
       </c>
       <c r="P6">
-        <v>13.9</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.04955436720142602</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.8580246913580247</v>
+        <v>-0</v>
       </c>
       <c r="S6">
-        <v>0.08300000000000018</v>
+        <v>0.2</v>
       </c>
       <c r="T6">
-        <v>0.005935779160409081</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>13.2</v>
+        <v>3.48</v>
       </c>
       <c r="V6">
-        <v>0.04705882352941176</v>
+        <v>0.05345622119815668</v>
       </c>
       <c r="W6">
-        <v>0.1231939163498099</v>
+        <v>0.06951612903225805</v>
       </c>
       <c r="X6">
-        <v>0.06508025327907381</v>
+        <v>0.05312645632293787</v>
       </c>
       <c r="Y6">
-        <v>0.05811366307073607</v>
+        <v>0.01638967270932018</v>
       </c>
       <c r="Z6">
-        <v>0.3098527783257446</v>
+        <v>0.4574603797113016</v>
       </c>
       <c r="AA6">
-        <v>0.00184534890240354</v>
+        <v>0.005491667339830395</v>
       </c>
       <c r="AB6">
-        <v>0.06234231713601604</v>
+        <v>0.04992875314515721</v>
       </c>
       <c r="AC6">
-        <v>-0.0604969682336125</v>
+        <v>-0.04443708580532681</v>
       </c>
       <c r="AD6">
-        <v>67.2</v>
+        <v>22.2</v>
       </c>
       <c r="AE6">
-        <v>3.222365997211846</v>
+        <v>0.6245910956314513</v>
       </c>
       <c r="AF6">
-        <v>70.42236599721186</v>
+        <v>22.82459109563145</v>
       </c>
       <c r="AG6">
-        <v>57.22236599721185</v>
+        <v>19.34459109563145</v>
       </c>
       <c r="AH6">
-        <v>0.2006779071977743</v>
+        <v>0.2595928034604815</v>
       </c>
       <c r="AI6">
-        <v>0.2743133256958869</v>
+        <v>0.2656351436136411</v>
       </c>
       <c r="AJ6">
-        <v>0.1694361160483054</v>
+        <v>0.2290802861929211</v>
       </c>
       <c r="AK6">
-        <v>0.2349778664595719</v>
+        <v>0.2346374800160356</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.091</v>
+        <v>-0.113</v>
       </c>
       <c r="AN6">
-        <v>60.54054054054054</v>
+        <v>36.15635179153094</v>
       </c>
       <c r="AP6">
-        <v>51.55168107856923</v>
+        <v>31.5058486899535</v>
       </c>
       <c r="AQ6">
         <v>-0</v>
@@ -1204,7 +1195,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bao Viet Securities Joint Stock Company (HNX:BVS)</t>
+          <t>F.I.T  Group  Joint Stock Company (HOSE:FIT)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1213,118 +1204,118 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.122</v>
+        <v>-0.0239</v>
       </c>
       <c r="E7">
-        <v>0.0409</v>
+        <v>-0.191</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0452054794520548</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0452054794520548</v>
       </c>
       <c r="I7">
-        <v>0.01316091819087602</v>
+        <v>0.007455968688845401</v>
       </c>
       <c r="J7">
-        <v>0.01177567969127594</v>
+        <v>0.006085140364887279</v>
       </c>
       <c r="K7">
-        <v>5.11</v>
+        <v>3.97</v>
       </c>
       <c r="L7">
-        <v>0.2492682926829269</v>
+        <v>0.0776908023483366</v>
       </c>
       <c r="M7">
-        <v>2.16</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.06967741935483872</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>0.4227005870841487</v>
+        <v>-0</v>
       </c>
       <c r="P7">
-        <v>2.16</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.06967741935483872</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>0.4227005870841487</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>0.519</v>
+        <v>1.07</v>
       </c>
       <c r="V7">
-        <v>0.01674193548387097</v>
+        <v>0.006365258774538965</v>
       </c>
       <c r="W7">
-        <v>0.06886792452830189</v>
+        <v>0.03130914826498423</v>
       </c>
       <c r="X7">
-        <v>0.07956239801043</v>
+        <v>0.04921112912891375</v>
       </c>
       <c r="Y7">
-        <v>-0.01069447348212811</v>
+        <v>-0.01790198086392952</v>
       </c>
       <c r="Z7">
-        <v>0.4440015894578288</v>
+        <v>0.3284061696658098</v>
       </c>
       <c r="AA7">
-        <v>0.005228420499872791</v>
+        <v>0.001998397639111439</v>
       </c>
       <c r="AB7">
-        <v>0.06572553630156151</v>
+        <v>0.04867424968325766</v>
       </c>
       <c r="AC7">
-        <v>-0.06049711580168872</v>
+        <v>-0.04667585204414623</v>
       </c>
       <c r="AD7">
-        <v>21.8</v>
+        <v>34.9</v>
       </c>
       <c r="AE7">
-        <v>0.6710058854352077</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>22.47100588543521</v>
+        <v>34.9</v>
       </c>
       <c r="AG7">
-        <v>21.95200588543521</v>
+        <v>33.83</v>
       </c>
       <c r="AH7">
-        <v>0.4202465525630969</v>
+        <v>0.1719211822660099</v>
       </c>
       <c r="AI7">
-        <v>0.2261324184575732</v>
+        <v>0.1674664107485604</v>
       </c>
       <c r="AJ7">
-        <v>0.4145641986241214</v>
+        <v>0.1675333036200664</v>
       </c>
       <c r="AK7">
-        <v>0.2220694025255951</v>
+        <v>0.163169825881445</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AM7">
-        <v>-0.675</v>
+        <v>-6.87</v>
       </c>
       <c r="AN7">
-        <v>53.96039603960396</v>
+        <v>10.51204819277108</v>
+      </c>
+      <c r="AO7">
+        <v>0.2015873015873016</v>
       </c>
       <c r="AP7">
-        <v>54.33664823127527</v>
+        <v>10.18975903614458</v>
       </c>
       <c r="AQ7">
-        <v>-0</v>
+        <v>-0.0554585152838428</v>
       </c>
     </row>
     <row r="8">
@@ -1344,10 +1335,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.254</v>
+        <v>-0.0326</v>
       </c>
       <c r="E8">
-        <v>0.349</v>
+        <v>-0.252</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1362,28 +1353,28 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>23.5</v>
+        <v>1.36</v>
       </c>
       <c r="L8">
-        <v>0.7556270096463023</v>
+        <v>0.1451440768409819</v>
       </c>
       <c r="M8">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="N8">
-        <v>0.0361344537815126</v>
+        <v>0.02543290043290043</v>
       </c>
       <c r="O8">
-        <v>0.09148936170212765</v>
+        <v>1.727941176470588</v>
       </c>
       <c r="P8">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="Q8">
-        <v>0.0361344537815126</v>
+        <v>0.02543290043290043</v>
       </c>
       <c r="R8">
-        <v>0.09148936170212765</v>
+        <v>1.727941176470588</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1392,61 +1383,61 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.31</v>
+        <v>7.1</v>
       </c>
       <c r="V8">
-        <v>0.02201680672268908</v>
+        <v>0.07683982683982683</v>
       </c>
       <c r="W8">
-        <v>0.3357142857142857</v>
+        <v>0.01511111111111111</v>
       </c>
       <c r="X8">
-        <v>0.0637250690966108</v>
+        <v>0.04897892851289477</v>
       </c>
       <c r="Y8">
-        <v>0.2719892166176749</v>
+        <v>-0.03386781740178366</v>
       </c>
       <c r="Z8">
-        <v>0.3403370540599694</v>
+        <v>0.09221533313650231</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.06079769451612407</v>
+        <v>0.04762207423149463</v>
       </c>
       <c r="AC8">
-        <v>-0.06079769451612407</v>
+        <v>-0.04762207423149463</v>
       </c>
       <c r="AD8">
-        <v>12.3</v>
+        <v>18.4</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>12.3</v>
+        <v>18.4</v>
       </c>
       <c r="AG8">
-        <v>10.99</v>
+        <v>11.3</v>
       </c>
       <c r="AH8">
-        <v>0.1713091922005571</v>
+        <v>0.1660649819494585</v>
       </c>
       <c r="AI8">
-        <v>0.1187258687258687</v>
+        <v>0.1722846441947565</v>
       </c>
       <c r="AJ8">
-        <v>0.1559086395233367</v>
+        <v>0.1089681774349084</v>
       </c>
       <c r="AK8">
-        <v>0.1074396324176361</v>
+        <v>0.1133400200601805</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
-        <v>-1.31</v>
+        <v>-0.981</v>
       </c>
       <c r="AQ8">
         <v>-0</v>
@@ -1460,7 +1451,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIDV Securities Joint Stock Company (HOSE:BSI)</t>
+          <t>Viet Capital Securities Joint Stock Company (HOSE:VCI)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1469,10 +1460,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0633</v>
+        <v>0.156</v>
       </c>
       <c r="E9">
-        <v>0.114</v>
+        <v>0.219</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1481,97 +1472,103 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008281545870467963</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.006695504358305613</v>
       </c>
       <c r="K9">
-        <v>4.47</v>
+        <v>26.7</v>
       </c>
       <c r="L9">
-        <v>0.1773809523809524</v>
+        <v>0.483695652173913</v>
       </c>
       <c r="M9">
-        <v>3.82</v>
+        <v>10.637</v>
       </c>
       <c r="N9">
-        <v>0.09271844660194174</v>
+        <v>0.0256684362934363</v>
       </c>
       <c r="O9">
-        <v>0.854586129753915</v>
+        <v>0.3983895131086143</v>
       </c>
       <c r="P9">
-        <v>3.82</v>
+        <v>10.6</v>
       </c>
       <c r="Q9">
-        <v>0.09271844660194174</v>
+        <v>0.02557915057915058</v>
       </c>
       <c r="R9">
-        <v>0.854586129753915</v>
+        <v>0.397003745318352</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.03700000000000081</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.003478424367772944</v>
       </c>
       <c r="U9">
-        <v>1.15</v>
+        <v>18.5</v>
       </c>
       <c r="V9">
-        <v>0.0279126213592233</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="W9">
-        <v>0.06984375</v>
+        <v>0.1636029411764706</v>
       </c>
       <c r="X9">
-        <v>0.06564134988816783</v>
+        <v>0.05069639925444801</v>
       </c>
       <c r="Y9">
-        <v>0.004202400111832164</v>
+        <v>0.1129065419220226</v>
       </c>
       <c r="Z9">
-        <v>0.3727259281171424</v>
+        <v>0.2581679603256796</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.001728564703535458</v>
       </c>
       <c r="AB9">
-        <v>0.06160788316300875</v>
+        <v>0.04974013550270943</v>
       </c>
       <c r="AC9">
-        <v>-0.06160788316300875</v>
+        <v>-0.04801157079917397</v>
       </c>
       <c r="AD9">
-        <v>11.1</v>
+        <v>107.9</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>0.6142933397508419</v>
       </c>
       <c r="AF9">
-        <v>11.1</v>
+        <v>108.5142933397509</v>
       </c>
       <c r="AG9">
-        <v>9.949999999999999</v>
+        <v>90.01429333975085</v>
       </c>
       <c r="AH9">
-        <v>0.2122370936902485</v>
+        <v>0.2075183155669572</v>
       </c>
       <c r="AI9">
-        <v>0.1518467852257182</v>
+        <v>0.3861522204087865</v>
       </c>
       <c r="AJ9">
-        <v>0.1945259042033235</v>
+        <v>0.1784530980352717</v>
       </c>
       <c r="AK9">
-        <v>0.1382904794996525</v>
+        <v>0.3428929228750706</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>-0.091</v>
+        <v>-0.232</v>
+      </c>
+      <c r="AN9">
+        <v>186.0344827586207</v>
+      </c>
+      <c r="AP9">
+        <v>155.1970574823291</v>
       </c>
       <c r="AQ9">
         <v>-0</v>
@@ -1585,7 +1582,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>F.I.T  Group  Joint Stock Company (HOSE:FIT)</t>
+          <t>Bao Viet Securities Joint Stock Company (HNX:BVS)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1594,121 +1591,118 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.892</v>
+        <v>0.115</v>
       </c>
       <c r="E10">
-        <v>-0.32</v>
+        <v>-0.005699999999999999</v>
       </c>
       <c r="G10">
-        <v>0.03212996389891697</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.03212996389891697</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.02328519855595668</v>
+        <v>0.01070764332057368</v>
       </c>
       <c r="J10">
-        <v>-0.01184927263794245</v>
+        <v>0.009313529363489084</v>
       </c>
       <c r="K10">
-        <v>0.673</v>
+        <v>5.27</v>
       </c>
       <c r="L10">
-        <v>0.01214801444043321</v>
+        <v>0.2521531100478469</v>
       </c>
       <c r="M10">
-        <v>0.391</v>
+        <v>0.927</v>
       </c>
       <c r="N10">
-        <v>0.003535262206148282</v>
+        <v>0.01632042253521127</v>
       </c>
       <c r="O10">
-        <v>0.5809806835066864</v>
+        <v>0.1759013282732448</v>
       </c>
       <c r="P10">
-        <v>-0</v>
+        <v>0.927</v>
       </c>
       <c r="Q10">
-        <v>-0</v>
+        <v>0.01632042253521127</v>
       </c>
       <c r="R10">
-        <v>-0</v>
+        <v>0.1759013282732448</v>
       </c>
       <c r="S10">
-        <v>0.391</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1.22</v>
+        <v>0.834</v>
       </c>
       <c r="V10">
-        <v>0.01103074141048825</v>
+        <v>0.0146830985915493</v>
       </c>
       <c r="W10">
-        <v>0.005341269841269842</v>
+        <v>0.06853055916775032</v>
       </c>
       <c r="X10">
-        <v>0.06738307826373786</v>
+        <v>0.05406961463839381</v>
       </c>
       <c r="Y10">
-        <v>-0.06204180842246802</v>
+        <v>0.01446094452935651</v>
       </c>
       <c r="Z10">
-        <v>0.3449564134495641</v>
+        <v>0.2120706746336988</v>
       </c>
       <c r="AA10">
-        <v>-0.004087482591170683</v>
+        <v>0.001975126455335894</v>
       </c>
       <c r="AB10">
-        <v>0.06345901545339576</v>
+        <v>0.05038288671684171</v>
       </c>
       <c r="AC10">
-        <v>-0.06754649804456644</v>
+        <v>-0.04840776026150582</v>
       </c>
       <c r="AD10">
-        <v>36.1</v>
+        <v>21.5</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>0.371051273000051</v>
       </c>
       <c r="AF10">
-        <v>36.1</v>
+        <v>21.87105127300005</v>
       </c>
       <c r="AG10">
-        <v>34.88</v>
+        <v>21.03705127300005</v>
       </c>
       <c r="AH10">
-        <v>0.2460804362644854</v>
+        <v>0.2780063431096695</v>
       </c>
       <c r="AI10">
-        <v>0.1738083774675012</v>
+        <v>0.2126064719116992</v>
       </c>
       <c r="AJ10">
-        <v>0.2397580423425901</v>
+        <v>0.2702704037337723</v>
       </c>
       <c r="AK10">
-        <v>0.1689267725687718</v>
+        <v>0.206170709664232</v>
       </c>
       <c r="AL10">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>-2.86</v>
+        <v>-1.2</v>
       </c>
       <c r="AN10">
-        <v>16.33484162895928</v>
-      </c>
-      <c r="AO10">
-        <v>-0.6548223350253808</v>
+        <v>72.14765100671141</v>
       </c>
       <c r="AP10">
-        <v>15.78280542986425</v>
+        <v>70.59413178859079</v>
       </c>
       <c r="AQ10">
-        <v>0.451048951048951</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -1719,7 +1713,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vietnam Bank for Industry and Trade Securities JSC (HOSE:CTS)</t>
+          <t>Ho Chi Minh City Securities Corporation (HOSE:HCM)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1728,10 +1722,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.237</v>
+        <v>0.234</v>
       </c>
       <c r="E11">
-        <v>0.0171</v>
+        <v>0.211</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1740,94 +1734,103 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.006551469525487404</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.005319225618346994</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>22.4</v>
       </c>
       <c r="L11">
-        <v>0.1587301587301587</v>
+        <v>0.3279648609077599</v>
       </c>
       <c r="M11">
-        <v>-0</v>
+        <v>16.079</v>
       </c>
       <c r="N11">
-        <v>-0</v>
+        <v>0.03903617382859918</v>
       </c>
       <c r="O11">
-        <v>-0</v>
+        <v>0.7178125000000001</v>
       </c>
       <c r="P11">
-        <v>-0</v>
+        <v>15.9</v>
       </c>
       <c r="Q11">
-        <v>-0</v>
+        <v>0.03860160233066279</v>
       </c>
       <c r="R11">
-        <v>-0</v>
+        <v>0.7098214285714286</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.1790000000000003</v>
+      </c>
+      <c r="T11">
+        <v>0.01113253311773122</v>
       </c>
       <c r="U11">
-        <v>3.95</v>
+        <v>30</v>
       </c>
       <c r="V11">
-        <v>0.1165191740412979</v>
+        <v>0.07283321194464676</v>
       </c>
       <c r="W11">
-        <v>0.06382978723404255</v>
+        <v>0.1202361782071927</v>
       </c>
       <c r="X11">
-        <v>0.09022584857857888</v>
+        <v>0.05496596906063358</v>
       </c>
       <c r="Y11">
-        <v>-0.02639606134453633</v>
+        <v>0.06527020914655909</v>
       </c>
       <c r="Z11">
-        <v>0.3298429319371728</v>
+        <v>0.2811999436292457</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.001495765944030414</v>
       </c>
       <c r="AB11">
-        <v>0.06765627913373691</v>
+        <v>0.05079403289355358</v>
       </c>
       <c r="AC11">
-        <v>-0.06765627913373691</v>
+        <v>-0.04929826694952317</v>
       </c>
       <c r="AD11">
-        <v>36.4</v>
+        <v>169.5</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>2.587673157046051</v>
       </c>
       <c r="AF11">
-        <v>36.4</v>
+        <v>172.0876731570461</v>
       </c>
       <c r="AG11">
-        <v>32.45</v>
+        <v>142.0876731570461</v>
       </c>
       <c r="AH11">
-        <v>0.5177809388335705</v>
+        <v>0.2946768931384074</v>
       </c>
       <c r="AI11">
-        <v>0.4004400440044004</v>
+        <v>0.4723949939499004</v>
       </c>
       <c r="AJ11">
-        <v>0.4890730972117558</v>
+        <v>0.2564816512023123</v>
       </c>
       <c r="AK11">
-        <v>0.3732029902242668</v>
+        <v>0.4250461041986859</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>-0.057</v>
+        <v>-0.075</v>
+      </c>
+      <c r="AN11">
+        <v>175.6476683937824</v>
+      </c>
+      <c r="AP11">
+        <v>147.2411120798405</v>
       </c>
       <c r="AQ11">
         <v>-0</v>
@@ -1841,7 +1844,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Thien Viet Securities Joint Stock Company (HOSE:TVS)</t>
+          <t>MB Securities Joint Stock Company (HNX:MBS)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1850,10 +1853,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.09359999999999999</v>
+        <v>0.247</v>
       </c>
       <c r="E12">
-        <v>0.0349</v>
+        <v>0.442</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1862,34 +1865,34 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.00739397969241351</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.005796013385261872</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>4.28</v>
+        <v>9.9</v>
       </c>
       <c r="L12">
-        <v>0.3124087591240876</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="M12">
-        <v>1.36</v>
+        <v>6.66</v>
       </c>
       <c r="N12">
-        <v>0.02821576763485477</v>
+        <v>0.05711835334476844</v>
       </c>
       <c r="O12">
-        <v>0.3177570093457944</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="P12">
-        <v>1.36</v>
+        <v>6.66</v>
       </c>
       <c r="Q12">
-        <v>0.02821576763485477</v>
+        <v>0.05711835334476844</v>
       </c>
       <c r="R12">
-        <v>0.3177570093457944</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1898,70 +1901,61 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1.2</v>
+        <v>6.94</v>
       </c>
       <c r="V12">
-        <v>0.02489626556016597</v>
+        <v>0.05951972555746141</v>
       </c>
       <c r="W12">
-        <v>0.1192200557103064</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="X12">
-        <v>0.1034500300844776</v>
+        <v>0.06423837750994867</v>
       </c>
       <c r="Y12">
-        <v>0.01577002562582877</v>
+        <v>0.07861876534719421</v>
       </c>
       <c r="Z12">
-        <v>0.1274163625058707</v>
+        <v>0.265165823071693</v>
       </c>
       <c r="AA12">
-        <v>0.0007385069425854056</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.06930406826695637</v>
+        <v>0.05414788772548804</v>
       </c>
       <c r="AC12">
-        <v>-0.06856556132437096</v>
+        <v>-0.05414788772548804</v>
       </c>
       <c r="AD12">
-        <v>72.3</v>
+        <v>88.2</v>
       </c>
       <c r="AE12">
-        <v>0.3085123910696747</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>72.60851239106967</v>
+        <v>88.2</v>
       </c>
       <c r="AG12">
-        <v>71.40851239106966</v>
+        <v>81.26000000000001</v>
       </c>
       <c r="AH12">
-        <v>0.6010214922275376</v>
+        <v>0.4306640625</v>
       </c>
       <c r="AI12">
-        <v>0.6442149829742827</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="AJ12">
-        <v>0.5970186482847791</v>
+        <v>0.4106944304053371</v>
       </c>
       <c r="AK12">
-        <v>0.6403861988637607</v>
+        <v>0.489931267333896</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>-0.066</v>
-      </c>
-      <c r="AN12">
-        <v>443.5582822085889</v>
-      </c>
-      <c r="AP12">
-        <v>438.089033074047</v>
-      </c>
-      <c r="AQ12">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1972,7 +1966,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SSI Securities Corporation (HOSE:SSI)</t>
+          <t>Saigon - Hanoi Securities Joint Stock Company (HNX:SHS)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1981,10 +1975,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.09710000000000001</v>
+        <v>0.233</v>
       </c>
       <c r="E13">
-        <v>0.0473</v>
+        <v>0.828</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1993,106 +1987,97 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01175266091352968</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.009468514053975481</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>38.6</v>
+        <v>19</v>
       </c>
       <c r="L13">
-        <v>0.3784313725490196</v>
+        <v>0.3807615230460922</v>
       </c>
       <c r="M13">
-        <v>21.847</v>
+        <v>11.7</v>
       </c>
       <c r="N13">
-        <v>0.05540705046918589</v>
+        <v>0.05251346499102334</v>
       </c>
       <c r="O13">
-        <v>0.5659844559585492</v>
+        <v>0.6157894736842104</v>
       </c>
       <c r="P13">
-        <v>21.4</v>
+        <v>11.7</v>
       </c>
       <c r="Q13">
-        <v>0.0542733958914532</v>
+        <v>0.05251346499102334</v>
       </c>
       <c r="R13">
-        <v>0.5544041450777202</v>
+        <v>0.6157894736842104</v>
       </c>
       <c r="S13">
-        <v>0.4469999999999992</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0.02046047512244241</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>14.8</v>
+        <v>12.9</v>
       </c>
       <c r="V13">
-        <v>0.03753487192493025</v>
+        <v>0.05789946140035906</v>
       </c>
       <c r="W13">
-        <v>0.09528511478647247</v>
+        <v>0.1662292213473316</v>
       </c>
       <c r="X13">
-        <v>0.1068284347162538</v>
+        <v>0.05941680369184124</v>
       </c>
       <c r="Y13">
-        <v>-0.0115433199297813</v>
+        <v>0.1068124176554903</v>
       </c>
       <c r="Z13">
-        <v>0.1114624798309822</v>
+        <v>0.2539181762670466</v>
       </c>
       <c r="AA13">
-        <v>0.001055384056770613</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.06963765421393298</v>
+        <v>0.05452224319041539</v>
       </c>
       <c r="AC13">
-        <v>-0.06858227015716237</v>
+        <v>-0.05452224319041539</v>
       </c>
       <c r="AD13">
-        <v>630</v>
+        <v>129.3</v>
       </c>
       <c r="AE13">
-        <v>7.556142934099862</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>637.5561429340999</v>
+        <v>129.3</v>
       </c>
       <c r="AG13">
-        <v>622.7561429340999</v>
+        <v>116.4</v>
       </c>
       <c r="AH13">
-        <v>0.6178730894804759</v>
+        <v>0.3672252201079239</v>
       </c>
       <c r="AI13">
-        <v>0.6038286060091543</v>
+        <v>0.5141153081510935</v>
       </c>
       <c r="AJ13">
-        <v>0.6123124541950201</v>
+        <v>0.3431603773584905</v>
       </c>
       <c r="AK13">
-        <v>0.5981965018514099</v>
+        <v>0.487845766974015</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>-0.749</v>
-      </c>
-      <c r="AN13">
-        <v>232.4723247232472</v>
-      </c>
-      <c r="AP13">
-        <v>229.7993147358302</v>
-      </c>
-      <c r="AQ13">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2103,7 +2088,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Everest Securities Joint Stock Company (HNX:EVS)</t>
+          <t>SSI Securities Corporation (HOSE:SSI)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2111,80 +2096,119 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D14">
+        <v>0.191</v>
+      </c>
+      <c r="E14">
+        <v>0.09849999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.0004592107506820326</v>
+      </c>
+      <c r="J14">
+        <v>0.0003743479694679091</v>
+      </c>
       <c r="K14">
-        <v>0</v>
+        <v>47.3</v>
+      </c>
+      <c r="L14">
+        <v>0.3442503639010189</v>
       </c>
       <c r="M14">
-        <v>-0</v>
+        <v>47.7</v>
       </c>
       <c r="N14">
-        <v>-0</v>
+        <v>0.05594651653764954</v>
+      </c>
+      <c r="O14">
+        <v>1.00845665961945</v>
       </c>
       <c r="P14">
-        <v>-0</v>
+        <v>47.7</v>
       </c>
       <c r="Q14">
-        <v>-0</v>
+        <v>0.05594651653764954</v>
+      </c>
+      <c r="R14">
+        <v>1.00845665961945</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
       <c r="U14">
-        <v>3.28</v>
+        <v>9.16</v>
       </c>
       <c r="V14">
-        <v>0.1338775510204082</v>
+        <v>0.01074360778794276</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>0.1138387484957882</v>
       </c>
       <c r="X14">
-        <v>0.07836555907934407</v>
+        <v>0.06688304851492158</v>
       </c>
       <c r="Y14">
-        <v>-0.07836555907934407</v>
+        <v>0.04695569998086663</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>0.1309963080682488</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>4.903820193314164e-05</v>
       </c>
       <c r="AB14">
-        <v>0.06864810486961888</v>
+        <v>0.05487979359926845</v>
       </c>
       <c r="AC14">
-        <v>-0.06864810486961888</v>
+        <v>-0.05483075539733531</v>
       </c>
       <c r="AD14">
-        <v>16.8</v>
+        <v>709.1</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>18.18452221428144</v>
       </c>
       <c r="AF14">
-        <v>16.8</v>
+        <v>727.2845222142814</v>
       </c>
       <c r="AG14">
-        <v>13.52</v>
+        <v>718.1245222142815</v>
       </c>
       <c r="AH14">
-        <v>0.4067796610169492</v>
+        <v>0.4603403046160351</v>
       </c>
       <c r="AI14">
-        <v>0.3544303797468354</v>
+        <v>0.6397171462918395</v>
       </c>
       <c r="AJ14">
-        <v>0.3556023145712783</v>
+        <v>0.4571931691764302</v>
       </c>
       <c r="AK14">
-        <v>0.3064369900271985</v>
+        <v>0.6367907304208013</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>-0.707</v>
+      </c>
+      <c r="AN14">
+        <v>191.6486486486486</v>
+      </c>
+      <c r="AP14">
+        <v>194.0877087065626</v>
+      </c>
+      <c r="AQ14">
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
@@ -2195,7 +2219,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MB Securities Joint Stock Company (HNX:MBS)</t>
+          <t>VNDIRECT Securities Joint Stock Company (HOSE:VND)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2203,6 +2227,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D15">
+        <v>0.267</v>
+      </c>
+      <c r="E15">
+        <v>0.301</v>
+      </c>
       <c r="G15">
         <v>0</v>
       </c>
@@ -2216,91 +2246,94 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7.38</v>
+        <v>25.5</v>
       </c>
       <c r="L15">
-        <v>0.2365384615384615</v>
+        <v>0.4537366548042704</v>
       </c>
       <c r="M15">
-        <v>0.004</v>
+        <v>5.223</v>
       </c>
       <c r="N15">
-        <v>5.291005291005291e-05</v>
+        <v>0.01941635687732342</v>
       </c>
       <c r="O15">
-        <v>0.0005420054200542005</v>
+        <v>0.2048235294117647</v>
       </c>
       <c r="P15">
-        <v>-0</v>
+        <v>5.2</v>
       </c>
       <c r="Q15">
-        <v>-0</v>
+        <v>0.01933085501858736</v>
       </c>
       <c r="R15">
-        <v>-0</v>
+        <v>0.203921568627451</v>
       </c>
       <c r="S15">
-        <v>0.004</v>
+        <v>0.02299999999999969</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0.004403599463909571</v>
       </c>
       <c r="U15">
-        <v>9.93</v>
+        <v>7.56</v>
       </c>
       <c r="V15">
-        <v>0.1313492063492064</v>
+        <v>0.02810408921933085</v>
       </c>
       <c r="W15">
-        <v>0.1178913738019169</v>
+        <v>0.191297824456114</v>
       </c>
       <c r="X15">
-        <v>0.08692059003546627</v>
+        <v>0.0844963125051557</v>
       </c>
       <c r="Y15">
-        <v>0.03097078376645065</v>
+        <v>0.1068015119509583</v>
       </c>
       <c r="Z15">
-        <v>0.26616618324518</v>
+        <v>0.1241593835331961</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.06948912707101682</v>
+        <v>0.05830953272640865</v>
       </c>
       <c r="AC15">
-        <v>-0.06948912707101682</v>
+        <v>-0.05830953272640865</v>
       </c>
       <c r="AD15">
-        <v>73</v>
+        <v>402.5</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>73</v>
+        <v>402.5</v>
       </c>
       <c r="AG15">
-        <v>63.07</v>
+        <v>394.94</v>
       </c>
       <c r="AH15">
-        <v>0.4912516823687753</v>
+        <v>0.5994043186895012</v>
       </c>
       <c r="AI15">
-        <v>0.5130007027406887</v>
+        <v>0.7234004313443566</v>
       </c>
       <c r="AJ15">
-        <v>0.4548207975769814</v>
+        <v>0.5948429074916407</v>
       </c>
       <c r="AK15">
-        <v>0.476467477525119</v>
+        <v>0.7195904088623277</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>-0.144</v>
+      </c>
+      <c r="AQ15">
+        <v>-0</v>
       </c>
     </row>
     <row r="16">
@@ -2311,7 +2344,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Saigon - Hanoi Securities Joint Stock Company (HNX:SHS)</t>
+          <t>Petrovietnam Securities Incorporated (HNX:PSI)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2319,104 +2352,74 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D16">
-        <v>0.248</v>
-      </c>
-      <c r="E16">
-        <v>0.154</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>13.2</v>
-      </c>
-      <c r="L16">
-        <v>0.3324937027707808</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.4</v>
+        <v>-0</v>
       </c>
       <c r="N16">
-        <v>0.1807580174927114</v>
-      </c>
-      <c r="O16">
-        <v>0.9393939393939394</v>
+        <v>-0</v>
       </c>
       <c r="P16">
-        <v>12.4</v>
+        <v>-0</v>
       </c>
       <c r="Q16">
-        <v>0.1807580174927114</v>
-      </c>
-      <c r="R16">
-        <v>0.9393939393939394</v>
+        <v>-0</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
       <c r="U16">
-        <v>4.22</v>
+        <v>0.844</v>
       </c>
       <c r="V16">
-        <v>0.06151603498542274</v>
+        <v>0.05375796178343949</v>
       </c>
       <c r="W16">
-        <v>0.1730013106159895</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>0.09701658930045519</v>
+        <v>0.07613959986191728</v>
       </c>
       <c r="Y16">
-        <v>0.07598472131553431</v>
+        <v>-0.07613959986191728</v>
       </c>
       <c r="Z16">
-        <v>0.3199033037872684</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.07128934031760008</v>
+        <v>0.05980357674092776</v>
       </c>
       <c r="AC16">
-        <v>-0.07128934031760008</v>
+        <v>-0.05980357674092776</v>
       </c>
       <c r="AD16">
-        <v>88.90000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>88.90000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="AG16">
-        <v>84.68000000000001</v>
+        <v>17.856</v>
       </c>
       <c r="AH16">
-        <v>0.5644444444444445</v>
+        <v>0.5436046511627907</v>
       </c>
       <c r="AI16">
-        <v>0.4375000000000001</v>
+        <v>0.4100877192982457</v>
       </c>
       <c r="AJ16">
-        <v>0.5524530271398748</v>
+        <v>0.5321254023125521</v>
       </c>
       <c r="AK16">
-        <v>0.4255704090863403</v>
+        <v>0.398963267494861</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2433,7 +2436,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>VNDIRECT Securities Joint Stock Company (HOSE:VND)</t>
+          <t>Thien Viet Securities Joint Stock Company (HOSE:TVS)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2442,10 +2445,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.225</v>
+        <v>0.168</v>
       </c>
       <c r="E17">
-        <v>0.166</v>
+        <v>0.121</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2454,97 +2457,100 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.006624151703475425</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.005324318161661379</v>
       </c>
       <c r="K17">
-        <v>11.9</v>
+        <v>6.39</v>
       </c>
       <c r="L17">
-        <v>0.2598253275109171</v>
+        <v>0.3472826086956522</v>
       </c>
       <c r="M17">
-        <v>11.04</v>
+        <v>-0</v>
       </c>
       <c r="N17">
-        <v>0.0855151045701007</v>
+        <v>-0</v>
       </c>
       <c r="O17">
-        <v>0.9277310924369747</v>
+        <v>-0</v>
       </c>
       <c r="P17">
-        <v>4.51</v>
+        <v>-0</v>
       </c>
       <c r="Q17">
-        <v>0.03493415956622773</v>
+        <v>-0</v>
       </c>
       <c r="R17">
-        <v>0.3789915966386554</v>
+        <v>-0</v>
       </c>
       <c r="S17">
-        <v>6.529999999999999</v>
-      </c>
-      <c r="T17">
-        <v>0.5914855072463768</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>12.8</v>
+        <v>2.58</v>
       </c>
       <c r="V17">
-        <v>0.09914794732765299</v>
+        <v>0.04195121951219512</v>
       </c>
       <c r="W17">
-        <v>0.08974358974358974</v>
+        <v>0.1593516209476309</v>
       </c>
       <c r="X17">
-        <v>0.1362227015858296</v>
+        <v>0.1079969790026764</v>
       </c>
       <c r="Y17">
-        <v>-0.04647911184223984</v>
+        <v>0.05135464194495457</v>
       </c>
       <c r="Z17">
-        <v>0.10376710854538</v>
+        <v>0.165229027392879</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>0.0008797319113815515</v>
       </c>
       <c r="AB17">
-        <v>0.07512915003023343</v>
+        <v>0.06083734945941248</v>
       </c>
       <c r="AC17">
-        <v>-0.07512915003023343</v>
+        <v>-0.05995761754803093</v>
       </c>
       <c r="AD17">
-        <v>332.9</v>
+        <v>144.6</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>0.205578043280261</v>
       </c>
       <c r="AF17">
-        <v>332.9</v>
+        <v>144.8055780432803</v>
       </c>
       <c r="AG17">
-        <v>320.1</v>
+        <v>142.2255780432803</v>
       </c>
       <c r="AH17">
-        <v>0.7205627705627705</v>
+        <v>0.7018985110179712</v>
       </c>
       <c r="AI17">
-        <v>0.714071214071214</v>
+        <v>0.7410514044343574</v>
       </c>
       <c r="AJ17">
-        <v>0.71260017809439</v>
+        <v>0.6981233255505369</v>
       </c>
       <c r="AK17">
-        <v>0.7059991177767975</v>
+        <v>0.737586680597723</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>-0.211</v>
+        <v>-0.058</v>
+      </c>
+      <c r="AN17">
+        <v>887.1165644171779</v>
+      </c>
+      <c r="AP17">
+        <v>872.5495585477315</v>
       </c>
       <c r="AQ17">
         <v>-0</v>
